--- a/ISRaD_data_files/McClaran_2000.xlsx
+++ b/ISRaD_data_files/McClaran_2000.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20384"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfromm\Documents\GitHub\ISRaD\ISRaD_data_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F2F613-C6DD-4C7E-BBA0-511E2BAE095A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28520" windowHeight="13000" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28524" windowHeight="12996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="929">
   <si>
     <t>entry_name</t>
   </si>
@@ -2807,12 +2813,21 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>pro_usda_soil_order</t>
+  </si>
+  <si>
+    <t>Alfisols</t>
+  </si>
+  <si>
+    <t>Ultisols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2931,10 +2946,18 @@
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_layer" xfId="3"/>
+    <cellStyle name="Normal_layer" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3216,14 +3239,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3273,7 +3298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3320,7 +3345,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3358,7 +3383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3411,14 +3436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3441,7 +3466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3464,7 +3489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3481,7 +3506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3498,7 +3523,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3527,14 +3552,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3575,76 +3602,79 @@
         <v>88</v>
       </c>
       <c r="N1" t="s">
+        <v>926</v>
+      </c>
+      <c r="O1" t="s">
         <v>89</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>90</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>91</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>92</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>93</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>94</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>95</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>96</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>97</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>98</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>100</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>102</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>103</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>104</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>105</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>106</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>108</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>109</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>110</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3684,77 +3714,77 @@
       <c r="M2" t="s">
         <v>120</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>121</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>122</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>124</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>125</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>126</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>127</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>128</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>129</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>130</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>132</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>133</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>135</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>136</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>137</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>138</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>139</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>140</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>141</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>142</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3782,29 +3812,26 @@
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>149</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>150</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>151</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>148</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>152</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>153</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>154</v>
-      </c>
-      <c r="V3" t="s">
-        <v>155</v>
       </c>
       <c r="W3" t="s">
         <v>155</v>
@@ -3813,43 +3840,46 @@
         <v>155</v>
       </c>
       <c r="Y3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" t="s">
         <v>156</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>157</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>158</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>159</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>160</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>161</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>152</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>162</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>163</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>164</v>
       </c>
       <c r="AI3" t="s">
         <v>164</v>
       </c>
       <c r="AJ3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3863,19 +3893,22 @@
         <v>166</v>
       </c>
       <c r="N4" t="s">
+        <v>927</v>
+      </c>
+      <c r="O4" t="s">
         <v>167</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>168</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>169</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -3889,15 +3922,18 @@
         <v>166</v>
       </c>
       <c r="N5" t="s">
+        <v>928</v>
+      </c>
+      <c r="O5" t="s">
         <v>172</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>168</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>173</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3913,14 +3949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4069,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4143,7 +4179,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4235,16 +4271,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT14"/>
   <sheetViews>
     <sheetView topLeftCell="AI1" workbookViewId="0">
       <selection activeCell="AZ4" sqref="AZ4:BA14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4540,7 +4576,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4836,7 +4872,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5075,7 +5111,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5110,7 +5146,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5145,7 +5181,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5180,7 +5216,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5215,7 +5251,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5250,7 +5286,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5282,7 +5318,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -5317,7 +5353,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5352,7 +5388,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -5387,7 +5423,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -5422,7 +5458,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -5469,14 +5505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5562,7 +5598,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5645,7 +5681,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5704,16 +5740,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:73" ht="52">
+    <row r="1" spans="1:73" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5934,7 +5970,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6152,7 +6188,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6331,14 +6367,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6430,7 +6466,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6513,7 +6549,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6572,14 +6608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>683</v>
       </c>
@@ -6713,7 +6749,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -6847,7 +6883,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>729</v>
       </c>
@@ -6870,7 +6906,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>734</v>
       </c>
@@ -7004,7 +7040,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>767</v>
       </c>
@@ -7117,7 +7153,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>800</v>
       </c>
@@ -7218,7 +7254,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>826</v>
       </c>
@@ -7292,7 +7328,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>846</v>
       </c>
@@ -7360,7 +7396,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>863</v>
       </c>
@@ -7413,7 +7449,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>879</v>
       </c>
@@ -7445,7 +7481,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>889</v>
       </c>
@@ -7471,7 +7507,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>896</v>
       </c>
@@ -7488,7 +7524,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U13" t="s">
         <v>901</v>
       </c>
@@ -7502,7 +7538,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U14" t="s">
         <v>905</v>
       </c>
@@ -7513,7 +7549,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U15" t="s">
         <v>908</v>
       </c>
@@ -7524,7 +7560,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="U16" t="s">
         <v>911</v>
       </c>
@@ -7535,7 +7571,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="17" spans="40:41">
+    <row r="17" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN17" t="s">
         <v>914</v>
       </c>
@@ -7543,7 +7579,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="18" spans="40:41">
+    <row r="18" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN18" t="s">
         <v>916</v>
       </c>
@@ -7551,7 +7587,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="19" spans="40:41">
+    <row r="19" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN19" t="s">
         <v>918</v>
       </c>
@@ -7559,7 +7595,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="20" spans="40:41">
+    <row r="20" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN20" t="s">
         <v>920</v>
       </c>
@@ -7567,7 +7603,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="21" spans="40:41">
+    <row r="21" spans="40:41" x14ac:dyDescent="0.3">
       <c r="AN21" t="s">
         <v>922</v>
       </c>
